--- a/results/CO2_reduction_80_percent.xlsx
+++ b/results/CO2_reduction_80_percent.xlsx
@@ -570,28 +570,28 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>10.40344692194109</v>
+        <v>10.264614161457</v>
       </c>
       <c r="E2">
-        <v>9.073035893433483</v>
+        <v>9.496772599473136</v>
       </c>
       <c r="F2">
-        <v>6.709659302004533</v>
+        <v>6.760986804152949</v>
       </c>
       <c r="G2">
-        <v>11.10878083245614</v>
+        <v>10.22292840706511</v>
       </c>
       <c r="H2">
-        <v>12.33879547264426</v>
+        <v>11.9595569713658</v>
       </c>
       <c r="I2">
-        <v>10.67459375989663</v>
+        <v>10.06478978815547</v>
       </c>
       <c r="J2">
-        <v>7.247889501966443</v>
+        <v>7.533904403291859</v>
       </c>
       <c r="K2">
-        <v>5.643798315657393</v>
+        <v>6.896446865038833</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -601,28 +601,28 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>10.40344692194109</v>
+        <v>10.264614161457</v>
       </c>
       <c r="E3">
-        <v>9.073035893433483</v>
+        <v>9.496772599473136</v>
       </c>
       <c r="F3">
-        <v>6.709659302004533</v>
+        <v>6.760986804152949</v>
       </c>
       <c r="G3">
-        <v>11.10878083245614</v>
+        <v>10.22292840706511</v>
       </c>
       <c r="H3">
-        <v>12.33879547264426</v>
+        <v>11.9595569713658</v>
       </c>
       <c r="I3">
-        <v>10.67459375989663</v>
+        <v>10.06478978815547</v>
       </c>
       <c r="J3">
-        <v>7.247889501966443</v>
+        <v>7.533904403291859</v>
       </c>
       <c r="K3">
-        <v>5.643798315657393</v>
+        <v>6.896446865038833</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -636,28 +636,28 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E4">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F4">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G4">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H4">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I4">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J4">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K4">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -667,28 +667,28 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E5">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F5">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G5">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H5">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I5">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J5">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K5">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -762,22 +762,22 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E8">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F8">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G8">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H8">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K8">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -787,22 +787,22 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E9">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F9">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G9">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H9">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K9">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -843,28 +843,28 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E11">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F11">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G11">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H11">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I11">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J11">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K11">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -874,28 +874,28 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E12">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F12">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G12">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H12">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I12">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J12">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K12">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -909,28 +909,28 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>1.713204443364429</v>
+        <v>1.69034193405088</v>
       </c>
       <c r="E13">
-        <v>1.494116856082827</v>
+        <v>1.563896383296397</v>
       </c>
       <c r="F13">
-        <v>1.104923994509204</v>
+        <v>1.11337643391771</v>
       </c>
       <c r="G13">
-        <v>1.829356445543773</v>
+        <v>1.683477265044184</v>
       </c>
       <c r="H13">
-        <v>2.031911095246392</v>
+        <v>1.969459381851744</v>
       </c>
       <c r="I13">
-        <v>1.757855987326261</v>
+        <v>1.657435532278211</v>
       </c>
       <c r="J13">
-        <v>1.193557922960643</v>
+        <v>1.240657889298317</v>
       </c>
       <c r="K13">
-        <v>0.9294016131754217</v>
+        <v>1.135683538471611</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,28 +942,28 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>1.713204443364429</v>
+        <v>1.69034193405088</v>
       </c>
       <c r="E14">
-        <v>1.494116856082827</v>
+        <v>1.563896383296397</v>
       </c>
       <c r="F14">
-        <v>1.104923994509204</v>
+        <v>1.11337643391771</v>
       </c>
       <c r="G14">
-        <v>1.829356445543773</v>
+        <v>1.683477265044184</v>
       </c>
       <c r="H14">
-        <v>2.031911095246392</v>
+        <v>1.969459381851744</v>
       </c>
       <c r="I14">
-        <v>1.757855987326261</v>
+        <v>1.657435532278211</v>
       </c>
       <c r="J14">
-        <v>1.193557922960643</v>
+        <v>1.240657889298317</v>
       </c>
       <c r="K14">
-        <v>0.9294016131754217</v>
+        <v>1.135683538471611</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -975,28 +975,28 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>51758.44239771689</v>
+        <v>51067.73214655227</v>
       </c>
       <c r="E15">
-        <v>45139.482056883</v>
+        <v>47247.62487300295</v>
       </c>
       <c r="F15">
-        <v>33381.3895622116</v>
+        <v>33636.75026941723</v>
       </c>
       <c r="G15">
-        <v>55267.56633062758</v>
+        <v>50860.34033366116</v>
       </c>
       <c r="H15">
-        <v>61387.04215245898</v>
+        <v>59500.28343962974</v>
       </c>
       <c r="I15">
-        <v>53107.43164127676</v>
+        <v>50073.58103559551</v>
       </c>
       <c r="J15">
-        <v>36059.15175107685</v>
+        <v>37482.11145916365</v>
       </c>
       <c r="K15">
-        <v>28078.59858536017</v>
+        <v>34310.68092059247</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1006,28 +1006,28 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>51758.44239771689</v>
+        <v>51067.73214655227</v>
       </c>
       <c r="E16">
-        <v>45139.482056883</v>
+        <v>47247.62487300295</v>
       </c>
       <c r="F16">
-        <v>33381.3895622116</v>
+        <v>33636.75026941723</v>
       </c>
       <c r="G16">
-        <v>55267.56633062758</v>
+        <v>50860.34033366116</v>
       </c>
       <c r="H16">
-        <v>61387.04215245898</v>
+        <v>59500.28343962974</v>
       </c>
       <c r="I16">
-        <v>53107.43164127676</v>
+        <v>50073.58103559551</v>
       </c>
       <c r="J16">
-        <v>36059.15175107685</v>
+        <v>37482.11145916365</v>
       </c>
       <c r="K16">
-        <v>28078.59858536017</v>
+        <v>34310.68092059247</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.097803065004515</v>
+        <v>2.098933552580515</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.39042922250933</v>
+        <v>28.40572857450703</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.728727485111894</v>
+        <v>1.729659081111924</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18.45377899463107</v>
+        <v>18.46372357342957</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32376.65500661702</v>
+        <v>32394.10250054459</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32376.65500661702</v>
+        <v>32394.10250054459</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3690755798926213</v>
+        <v>0.3692744714685915</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.121040321172985</v>
       </c>
       <c r="F24">
-        <v>13.1618749650885</v>
+        <v>13.16475564260294</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>46.9630742677186</v>
+        <v>46.97335285434936</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0.9370403211729852</v>
       </c>
       <c r="F26">
-        <v>11.00157354877345</v>
+        <v>11.00398141130287</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="F27">
-        <v>108.0150708157528</v>
+        <v>108.0387115650035</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1368,16 +1368,16 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <v>17741.68125435159</v>
+        <v>17741.68125435166</v>
       </c>
       <c r="F28">
-        <v>201985.9397578854</v>
+        <v>202030.3926070616</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>82971.15113471502</v>
+        <v>82971.15113471374</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1387,16 +1387,16 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>17741.68125435159</v>
+        <v>17741.68125435166</v>
       </c>
       <c r="F29">
-        <v>201985.9397578854</v>
+        <v>202030.3926070616</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>82971.15113471502</v>
+        <v>82971.15113471374</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1411,7 +1411,7 @@
         <v>0.184</v>
       </c>
       <c r="F30">
-        <v>2.160301416315056</v>
+        <v>2.160774231300071</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.2081858941836639</v>
+        <v>0.2037186148652547</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2.832640297831715</v>
+        <v>2.832970863402022</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.553192228776189</v>
+        <v>1.519863632963619</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>21.13320364361037</v>
+        <v>21.13566986197216</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.1740156651505877</v>
+        <v>0.1702816149400551</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2.367709817672287</v>
+        <v>2.367986126438635</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.708511451653808</v>
+        <v>1.671849996259981</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>23.24652400797141</v>
+        <v>23.24923684816938</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3670.65981690137</v>
+        <v>3591.894333056962</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>55508.79397110297</v>
+        <v>55525.60478391438</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3670.65981690137</v>
+        <v>3591.894333056962</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>55508.79397110297</v>
+        <v>55525.60478391438</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.03417022903307615</v>
+        <v>0.03343699992519963</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.4649304801594282</v>
+        <v>0.4649847369633877</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.548937065037755</v>
+        <v>0.5292829210100521</v>
       </c>
       <c r="E2">
-        <v>0.4558480921115686</v>
+        <v>0.4764681901861153</v>
       </c>
       <c r="F2">
-        <v>0.3441069336323678</v>
+        <v>0.3522681736664415</v>
       </c>
       <c r="G2">
-        <v>0.4523058353942614</v>
+        <v>0.4475296319349026</v>
       </c>
       <c r="H2">
-        <v>0.5557607458676382</v>
+        <v>0.5395049119953069</v>
       </c>
       <c r="I2">
-        <v>0.4727001463120929</v>
+        <v>0.4341563389557624</v>
       </c>
       <c r="J2">
-        <v>0.3700793696996532</v>
+        <v>0.3859883081272362</v>
       </c>
       <c r="K2">
-        <v>0.2733694490175812</v>
+        <v>0.3079241649920827</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1761,28 +1761,28 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>7.087305703168497</v>
+        <v>6.833551792328367</v>
       </c>
       <c r="E3">
-        <v>5.885437491415512</v>
+        <v>6.151662798452445</v>
       </c>
       <c r="F3">
-        <v>4.442751616826545</v>
+        <v>4.548121078505069</v>
       </c>
       <c r="G3">
-        <v>5.839703548795093</v>
+        <v>5.7780381664171</v>
       </c>
       <c r="H3">
-        <v>7.175405988506138</v>
+        <v>6.965527531664807</v>
       </c>
       <c r="I3">
-        <v>6.103013726383844</v>
+        <v>5.605376086120728</v>
       </c>
       <c r="J3">
-        <v>4.778080757430652</v>
+        <v>4.983480460293511</v>
       </c>
       <c r="K3">
-        <v>3.529462626031781</v>
+        <v>3.975597258206069</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1794,28 +1794,28 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.4001036452712165</v>
+        <v>0.3857783333711564</v>
       </c>
       <c r="E4">
-        <v>0.3322539047918428</v>
+        <v>0.347283271418614</v>
       </c>
       <c r="F4">
-        <v>0.2508091496790104</v>
+        <v>0.256757631017835</v>
       </c>
       <c r="G4">
-        <v>0.3296720608695644</v>
+        <v>0.3261908304401435</v>
       </c>
       <c r="H4">
-        <v>0.4050772201090093</v>
+        <v>0.393228833830346</v>
       </c>
       <c r="I4">
-        <v>0.3445368580580321</v>
+        <v>0.3164434411472271</v>
       </c>
       <c r="J4">
-        <v>0.2697396737936095</v>
+        <v>0.2813352184610724</v>
       </c>
       <c r="K4">
-        <v>0.1992507338709138</v>
+        <v>0.2244366225697553</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1827,28 +1827,28 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>4.606748707059523</v>
+        <v>4.441808665013439</v>
       </c>
       <c r="E5">
-        <v>3.825534369420083</v>
+        <v>3.99858081899409</v>
       </c>
       <c r="F5">
-        <v>2.887788550937254</v>
+        <v>2.956278701028295</v>
       </c>
       <c r="G5">
-        <v>3.795807306716811</v>
+        <v>3.755724808171115</v>
       </c>
       <c r="H5">
-        <v>4.66401389252899</v>
+        <v>4.527592895582125</v>
       </c>
       <c r="I5">
-        <v>3.966958922149499</v>
+        <v>3.643494455978473</v>
       </c>
       <c r="J5">
-        <v>3.105752492329924</v>
+        <v>3.239262299190782</v>
       </c>
       <c r="K5">
-        <v>2.294150706920658</v>
+        <v>2.584138217833945</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1860,28 +1860,28 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>31055.06543863013</v>
+        <v>30640.63928793072</v>
       </c>
       <c r="E6">
-        <v>27083.68923412981</v>
+        <v>28348.57492380172</v>
       </c>
       <c r="F6">
-        <v>20028.83373732696</v>
+        <v>20182.05016165074</v>
       </c>
       <c r="G6">
-        <v>33160.53979837654</v>
+        <v>30516.20420019554</v>
       </c>
       <c r="H6">
-        <v>36832.2252914754</v>
+        <v>35700.17006378141</v>
       </c>
       <c r="I6">
-        <v>31864.45898476605</v>
+        <v>30044.14862136017</v>
       </c>
       <c r="J6">
-        <v>21635.4910506461</v>
+        <v>22489.26687549856</v>
       </c>
       <c r="K6">
-        <v>16847.1591512161</v>
+        <v>20586.40855235649</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1891,28 +1891,28 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>31055.06543863013</v>
+        <v>30640.63928793072</v>
       </c>
       <c r="E7">
-        <v>27083.68923412981</v>
+        <v>28348.57492380172</v>
       </c>
       <c r="F7">
-        <v>20028.83373732696</v>
+        <v>20182.05016165074</v>
       </c>
       <c r="G7">
-        <v>33160.53979837654</v>
+        <v>30516.20420019554</v>
       </c>
       <c r="H7">
-        <v>36832.2252914754</v>
+        <v>35700.17006378141</v>
       </c>
       <c r="I7">
-        <v>31864.45898476605</v>
+        <v>30044.14862136017</v>
       </c>
       <c r="J7">
-        <v>21635.4910506461</v>
+        <v>22489.26687549856</v>
       </c>
       <c r="K7">
-        <v>16847.1591512161</v>
+        <v>20586.40855235649</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1924,28 +1924,28 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1488334197665385</v>
+        <v>0.1435045876388957</v>
       </c>
       <c r="E8">
-        <v>0.1235941873197258</v>
+        <v>0.1291849187675013</v>
       </c>
       <c r="F8">
-        <v>0.09329778395335744</v>
+        <v>0.09551054264860646</v>
       </c>
       <c r="G8">
-        <v>0.122633774524697</v>
+        <v>0.1213388014947591</v>
       </c>
       <c r="H8">
-        <v>0.1506835257586289</v>
+        <v>0.146276078164961</v>
       </c>
       <c r="I8">
-        <v>0.1281632882540607</v>
+        <v>0.1177128978085353</v>
       </c>
       <c r="J8">
-        <v>0.1003396959060437</v>
+        <v>0.1046530896661637</v>
       </c>
       <c r="K8">
-        <v>0.0741187151466674</v>
+        <v>0.08348754242232746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>99382.68365578969</v>
+        <v>99382.68365577029</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>99382.68365578969</v>
+        <v>99382.68365577029</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01752570129025744</v>
+        <v>0.01761623686204545</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.04302004113876</v>
+        <v>1.04840815167693</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01543966120797992</v>
+        <v>0.01551942055869159</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1574960262119528</v>
+        <v>0.1583096309032165</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>419.7813433098654</v>
+        <v>409.4794307505103</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>419.7813433098654</v>
+        <v>409.4794307505103</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>378.7615454852834</v>
+        <v>369.4904070653983</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>378.7615454852834</v>
+        <v>369.4904070653983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.002086040082277521</v>
+        <v>0.00209681630335386</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>2483.076385605777</v>
+        <v>2639.02060085905</v>
       </c>
       <c r="E13">
-        <v>1251.382804002645</v>
+        <v>1317.114034247664</v>
       </c>
       <c r="F13">
-        <v>143.9274383172578</v>
+        <v>137.8816700819153</v>
       </c>
       <c r="G13">
-        <v>3046.894150931981</v>
+        <v>3063.138611483697</v>
       </c>
       <c r="H13">
-        <v>1187.32893449202</v>
+        <v>1221.621633144172</v>
       </c>
       <c r="I13">
-        <v>4075.052593467445</v>
+        <v>3814.866955450121</v>
       </c>
       <c r="J13">
-        <v>169.2797266539559</v>
+        <v>167.6562764292971</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2630,25 +2630,25 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>2483.076385605777</v>
+        <v>2639.02060085905</v>
       </c>
       <c r="E14">
-        <v>1251.382804002645</v>
+        <v>1317.114034247664</v>
       </c>
       <c r="F14">
-        <v>143.9274383172578</v>
+        <v>137.8816700819153</v>
       </c>
       <c r="G14">
-        <v>3046.894150931981</v>
+        <v>3063.138611483697</v>
       </c>
       <c r="H14">
-        <v>1187.32893449202</v>
+        <v>1221.621633144172</v>
       </c>
       <c r="I14">
-        <v>4075.052593467445</v>
+        <v>3814.866955450121</v>
       </c>
       <c r="J14">
-        <v>169.2797266539559</v>
+        <v>167.6562764292971</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2660,25 +2660,25 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>1922.777280101682</v>
+        <v>2043.541131047621</v>
       </c>
       <c r="E15">
-        <v>969.0060365858013</v>
+        <v>1019.910808691435</v>
       </c>
       <c r="F15">
-        <v>111.4510262654736</v>
+        <v>106.7681467048894</v>
       </c>
       <c r="G15">
-        <v>2359.392019109639</v>
+        <v>2371.961925307077</v>
       </c>
       <c r="H15">
-        <v>919.402520889325</v>
+        <v>945.9657283212223</v>
       </c>
       <c r="I15">
-        <v>3155.533536217403</v>
+        <v>2954.067694867747</v>
       </c>
       <c r="J15">
-        <v>131.0844269238674</v>
+        <v>129.8269868318204</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2688,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>1922.777280101682</v>
+        <v>2043.541131047621</v>
       </c>
       <c r="E16">
-        <v>969.0060365858013</v>
+        <v>1019.910808691435</v>
       </c>
       <c r="F16">
-        <v>111.4510262654736</v>
+        <v>106.7681467048894</v>
       </c>
       <c r="G16">
-        <v>2359.392019109639</v>
+        <v>2371.961925307077</v>
       </c>
       <c r="H16">
-        <v>919.402520889325</v>
+        <v>945.9657283212223</v>
       </c>
       <c r="I16">
-        <v>3155.533536217403</v>
+        <v>2954.067694867747</v>
       </c>
       <c r="J16">
-        <v>131.0844269238674</v>
+        <v>129.8269868318204</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002953335585992162</v>
+        <v>0.00295333558599216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.005555170222539251</v>
+        <v>0.005555170222539253</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005555170222539251</v>
+        <v>0.005555170222539253</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005462223194557391</v>
+        <v>0.005462223194557393</v>
       </c>
       <c r="J5">
-        <v>0.008895785414216054</v>
+        <v>0.008895785414216055</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.005462223194557391</v>
+        <v>0.005462223194557393</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.008895785414216054</v>
+        <v>0.008895785414216055</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.002953335585992162</v>
+        <v>0.00295333558599216</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.126326573359067</v>
+        <v>3.126326573359065</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1658817541652056</v>
+        <v>0.1658817541652038</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3080,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3.126326573359067</v>
+        <v>3.126326573359065</v>
       </c>
       <c r="F11">
-        <v>1.878150107735711</v>
+        <v>1.878150107735713</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.260990023832001</v>
+        <v>6.260990023832</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.878150107735711</v>
+        <v>1.878150107735713</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6560985812908258</v>
+        <v>0.6560985812908264</v>
       </c>
       <c r="J13">
         <v>1.257026876309641</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6560985812908258</v>
+        <v>0.6560985812908264</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>6.260990023832001</v>
+        <v>6.260990023832</v>
       </c>
       <c r="G16">
         <v>1.257026876309641</v>
@@ -3179,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0.1658817541652056</v>
+        <v>0.1658817541652038</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.00858489586030718</v>
+        <v>0.008584895860307175</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.0002412979630632329</v>
+        <v>0.0002412979630632304</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3218,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.00858489586030718</v>
+        <v>0.008584895860307175</v>
       </c>
       <c r="F19">
-        <v>0.002787784893019935</v>
+        <v>0.002787784893019937</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.002787784893019935</v>
+        <v>0.002787784893019937</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3259,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001421840613459191</v>
+        <v>0.001421840613459192</v>
       </c>
       <c r="J21">
-        <v>0.003582405581538968</v>
+        <v>0.00358240558153897</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001421840613459191</v>
+        <v>0.001421840613459192</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0.0141723482756477</v>
       </c>
       <c r="G24">
-        <v>0.003582405581538968</v>
+        <v>0.00358240558153897</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3317,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>0.0002412979630632329</v>
+        <v>0.0002412979630632304</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.03521738490774966</v>
+        <v>0.03521738490774963</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3497,7 +3497,7 @@
         <v>0.1634215636446426</v>
       </c>
       <c r="F35">
-        <v>0.06624325690692209</v>
+        <v>0.06624325690692212</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.06624325690692209</v>
+        <v>0.06624325690692212</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.06513489953771752</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="J37">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645069</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06513489953771752</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0.2193247732182853</v>
       </c>
       <c r="G40">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645069</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>0.03521738490774966</v>
+        <v>0.03521738490774963</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1453.12416648719</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3770,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F51">
-        <v>16452.59494376483</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5747.423572107632</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3808,10 +3808,10 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>54846.27260876831</v>
+        <v>54846.27260876293</v>
       </c>
       <c r="G53">
-        <v>11011.55543647246</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3829,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1453.12416648719</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3845,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F55">
-        <v>16452.59494376483</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5747.423572107632</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3883,10 +3883,10 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>54846.27260876831</v>
+        <v>54846.27260876293</v>
       </c>
       <c r="G57">
-        <v>11011.55543647246</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
   </sheetData>
